--- a/ajustador_da_tabela_de_dados/001/Cadastro Fornecedor.xlsx
+++ b/ajustador_da_tabela_de_dados/001/Cadastro Fornecedor.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -971,7 +971,115 @@
           <t>contato@logoprint.com.br</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>GLOBEPACK INDUSTRIA E COMERCIO EMBALAGENS PLASTICAS LTDA</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FITA/ESTRA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>(27)3020-6427</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>COMPRA FILME STRACK</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>JULIA ROCHA ESPERIDON</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FITA/ETIQUETA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COMPRA ETIQUETA E FITA ADESIVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MULTIPLST DISTRIBUIDORA DE EMBALAGENS LTDA</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FITA/ESTRA</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>(27)3226-0379</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>WMS SUPERMERCADOS DO BEASIL LTDA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>COZINHA/ALIMENTOS</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>(11) 2967-8461</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>JUMBO COMERCIO DE UTILIDADES DE UTILIDADES LTDA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PAPELA</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>DD VILLELA COMERCIO VAREGISTA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FITA/ESTRA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>(27)3319-6486</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
